--- a/数据整理/stocks/港股/00981-中芯国际.xlsx
+++ b/数据整理/stocks/港股/00981-中芯国际.xlsx
@@ -451,463 +451,623 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9321</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>54.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6039</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>54.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2507</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2466</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>006930</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>泰康中证港股通TMT主题指数A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>93.02</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>3.82</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>006931</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>泰康中证港股通TMT主题指数C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>93.02</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>3.82</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>506000</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方科创板 3 年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>90.54</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001942</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源沪港深汇鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20.21</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001943</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源沪港深汇鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>20.21</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004266</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>84.76</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004316</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>82.77</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004317</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>82.77</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008061</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>惠升惠新灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>71.71</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008062</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>惠升惠新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>71.71</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009782</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>富国兴泉回报12个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>54.15</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009783</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>富国兴泉回报12个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>54.15</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010754</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>84.76</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001900</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>诺安精选价值混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>90.58</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006122</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华安低碳生活混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -917,7 +1077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -938,15 +1098,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009782</t>
+          <t>009863</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国兴泉回报12个月持有期混合A</t>
+          <t>富国创新趋势股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>58.86</t>
+          <t>107.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9252</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009783</t>
+          <t>501203</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国兴泉回报12个月持有期混合C</t>
+          <t>易方达创新未来18个月封闭运作混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>58.86</t>
+          <t>83.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1268</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1014,25 +1204,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>457001</t>
+          <t>009892</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国富亚洲机会股票 (QDII)</t>
+          <t>富国成长策略混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.07</t>
+          <t>54.15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1443</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001215</t>
+          <t>011300</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时沪港深优质企业灵活配置混合A</t>
+          <t>易方达智造优势混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>84.49</t>
+          <t>84.97</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>39.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1073</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002555</t>
+          <t>006751</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时沪港深优质企业灵活配置混合C</t>
+          <t>富国互联科技股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>84.49</t>
+          <t>43.62</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9585</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004521</t>
+          <t>010662</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+          <t>富国均衡优选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.29</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>41.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6362</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004522</t>
+          <t>009782</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+          <t>富国兴泉回报12个月持有期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.29</t>
+          <t>25.22</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>58.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8751</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009334</t>
+          <t>501311</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国融享18个月定期开放混合</t>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>17.12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4400</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005732</t>
+          <t>011301</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国臻选成长灵活配置混合</t>
+          <t>易方达智造优势混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>75.06</t>
+          <t>16.33</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>39.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4050</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009863</t>
+          <t>009783</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国创新趋势股票</t>
+          <t>富国兴泉回报12个月持有期混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90.64</t>
+          <t>10.11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>58.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3508</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009892</t>
+          <t>519779</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>富国成长策略混合</t>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>89.48</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3131</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010335</t>
+          <t>100016</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华宝竞争优势混合</t>
+          <t>富国天源沪港深平衡混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>42.87</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>65.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2543</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1294,25 +1584,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006751</t>
+          <t>457001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>富国互联科技股票A</t>
+          <t>国富亚洲机会股票 (QDII)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>87.85</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2419</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1322,25 +1622,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>011126</t>
+          <t>010335</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>富国互联科技股票C</t>
+          <t>华宝竞争优势混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>87.85</t>
+          <t>14.44</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>42.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2397</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>006923</t>
+          <t>009334</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>前海开源沪港深非周期性行业股票A</t>
+          <t>富国融享18个月定期开放混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>7.54</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2337</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006924</t>
+          <t>006614</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>前海开源沪港深非周期性行业股票C</t>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1311</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>006930</t>
+          <t>001215</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>泰康中证港股通TMT主题指数A</t>
+          <t>博时沪港深优质企业灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>006931</t>
+          <t>005732</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>泰康中证港股通TMT主题指数C</t>
+          <t>富国臻选成长灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
+          <t>75.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>501203</t>
+          <t>009017</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>易方达创新未来18个月封闭运作混合A</t>
+          <t>银华港股通精选股票</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>87.77</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>501311</t>
+          <t>519601</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+          <t>海富通中国海外精选混合(QDII)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>006614</t>
+          <t>006923</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+          <t>前海开源沪港深非周期性行业股票A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1546,25 +1926,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>010662</t>
+          <t>011126</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>富国均衡优选混合</t>
+          <t>富国互联科技股票C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>41.56</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>011300</t>
+          <t>006930</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>易方达智造优势混合A</t>
+          <t>泰康中证港股通TMT主题指数A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>39.35</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>8</v>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -1602,25 +2002,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>011301</t>
+          <t>006924</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>易方达智造优势混合C</t>
+          <t>前海开源沪港深非周期性行业股票C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>39.35</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>100016</t>
+          <t>519602</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>富国天源沪港深平衡混合</t>
+          <t>海富通大中华精选混合QDII</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>65.62</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>4</v>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>519601</t>
+          <t>002555</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>海富通中国海外精选混合(QDII)</t>
+          <t>博时沪港深优质企业灵活配置混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>7</v>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1686,25 +2116,35 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>519602</t>
+          <t>006931</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>海富通大中华精选混合QDII</t>
+          <t>泰康中证港股通TMT主题指数C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>519779</t>
+          <t>004521</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>83.96</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>5</v>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>009017</t>
+          <t>004522</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>银华港股通精选股票</t>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>91.93</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>8</v>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00981-中芯国际.xlsx
+++ b/数据整理/stocks/港股/00981-中芯国际.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2227,4 +2228,1542 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0579</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8232</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3522</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7977</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>48.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4126</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3994</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2758</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2723</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008934</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成科技消费股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7557</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5606</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4100</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3975</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3602</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3549</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>68.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3413</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3043</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3028</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2911</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2614</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2227</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008935</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成科技消费股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2083</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1832</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1662</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>74.36</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>74.36</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00981-中芯国际.xlsx
+++ b/数据整理/stocks/港股/00981-中芯国际.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3766,4 +3767,1580 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>116.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.2280</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011401</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8096</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9055</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6612</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6584</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3371</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9696</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8586</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6827</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6782</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4293</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4195</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4080</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3698</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3677</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3664</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2159</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1833</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1818</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1732</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011402</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1113</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>96.11</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011144</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>96.30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>080006</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长盛环球行业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011145</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00981-中芯国际.xlsx
+++ b/数据整理/stocks/港股/00981-中芯国际.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5343,4 +5344,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>39</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00981-中芯国际.xlsx
+++ b/数据整理/stocks/港股/00981-中芯国际.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5352,7 +5353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5363,17 +5364,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5383,14 +5404,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D2" t="n">
-        <v>24.29</v>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>188.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.2450</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -5399,14 +5442,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>39</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.1</v>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6542</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -5415,14 +5480,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>29</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20.83</v>
+          <t>011401</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>55.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9312</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -5431,13 +5518,1215 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5835</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5449</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2771</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5679</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5332</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5315</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2934</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2411</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2077</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1970</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1882</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011144</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011402</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012170</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>73.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013127</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013128</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011145</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012171</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>63.43</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>15</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.15</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00981-中芯国际.xlsx
+++ b/数据整理/stocks/港股/00981-中芯国际.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6625,7 +6626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6636,17 +6637,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6656,14 +6677,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>32</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.07</v>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>233.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.5376</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -6672,14 +6715,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>40</v>
-      </c>
-      <c r="D3" t="n">
-        <v>24.29</v>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.3552</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -6688,14 +6753,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>39</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.1</v>
+          <t>011401</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5677</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -6704,14 +6791,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>29</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20.83</v>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4424</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -6720,13 +6829,1611 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2674</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1623</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5171</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5098</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3679</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3565</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014887</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商安福1年定期开放债券</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3530</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3421</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2687</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2401</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2022</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1943</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1843</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1678</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1639</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>95.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>513890</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上投摩根恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方中证香港科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>100.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013127</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011402</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>513160</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华恒生港股通中国科技ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159751</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011144</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013128</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>513020</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011145</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004321</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>前海开源沪港深强国产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>64.32</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>43</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>29</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>15</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.15</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00981-中芯国际.xlsx
+++ b/数据整理/stocks/港股/00981-中芯国际.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,37 +467,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -507,36 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>506000</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方科创板 3 年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>30.46</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.54</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9321</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>43</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.45</v>
       </c>
     </row>
     <row r="3">
@@ -545,36 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009782</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国兴泉回报12个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>24.35</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>54.15</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6039</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.07</v>
       </c>
     </row>
     <row r="4">
@@ -583,36 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009783</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国兴泉回报12个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.11</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>54.15</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2507</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24.29</v>
       </c>
     </row>
     <row r="5">
@@ -621,36 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006122</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华安低碳生活混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2466</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.1</v>
       </c>
     </row>
     <row r="6">
@@ -659,36 +551,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004316</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>82.77</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0193</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>29</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.83</v>
       </c>
     </row>
     <row r="7">
@@ -697,378 +567,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001943</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源沪港深汇鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>20.21</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0176</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008061</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>惠升惠新灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>71.71</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0164</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006930</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>泰康中证港股通TMT主题指数A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0118</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001900</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>诺安精选价值混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.58</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008062</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>惠升惠新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>71.71</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0105</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004317</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>82.77</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0093</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001942</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>前海开源沪港深汇鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>20.21</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004266</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>84.76</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006931</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>泰康中证港股通TMT主题指数C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>010754</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>84.76</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.15</v>
       </c>
     </row>
   </sheetData>
@@ -1082,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1133,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009863</t>
+          <t>513330</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国创新趋势股票</t>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>107.34</t>
+          <t>233.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.64</t>
+          <t>96.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.9252</t>
+          <t>10.5376</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1171,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501203</t>
+          <t>513180</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达创新未来18个月封闭运作混合A</t>
+          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>83.38</t>
+          <t>89.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.77</t>
+          <t>94.63</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.1268</t>
+          <t>4.3552</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1209,32 +715,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009892</t>
+          <t>011401</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国成长策略混合</t>
+          <t>汇添富成长精选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>54.15</t>
+          <t>42.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.48</t>
+          <t>87.99</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.1443</t>
+          <t>1.5677</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1247,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011300</t>
+          <t>011136</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达智造优势混合A</t>
+          <t>广发盛兴混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>84.97</t>
+          <t>22.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>39.35</t>
+          <t>93.21</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.1073</t>
+          <t>1.4424</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1285,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006751</t>
+          <t>513010</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国互联科技股票A</t>
+          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>43.62</t>
+          <t>26.24</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.85</t>
+          <t>94.46</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.9585</t>
+          <t>1.2674</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1323,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010662</t>
+          <t>010792</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国均衡优选混合</t>
+          <t>华安成长先锋混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>16.44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>41.56</t>
+          <t>93.43</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.6362</t>
+          <t>1.1623</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1361,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009782</t>
+          <t>010161</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国兴泉回报12个月持有期混合A</t>
+          <t>广发瑞安精选股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25.22</t>
+          <t>8.03</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>58.86</t>
+          <t>92.30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.8751</t>
+          <t>0.5171</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1409,22 +915,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>17.12</t>
+          <t>22.36</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>94.24</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.4400</t>
+          <t>0.5098</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1437,36 +943,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011301</t>
+          <t>009362</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达智造优势混合C</t>
+          <t>招商丰盈积极配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>16.33</t>
+          <t>21.39</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>39.35</t>
+          <t>87.04</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.4050</t>
+          <t>0.3679</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1475,36 +981,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009783</t>
+          <t>159740</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国兴泉回报12个月持有期混合C</t>
+          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10.11</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>58.86</t>
+          <t>98.90</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.3508</t>
+          <t>0.3565</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1513,32 +1019,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>519779</t>
+          <t>014887</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+          <t>招商安福1年定期开放债券</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.35</t>
+          <t>17.22</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>83.96</t>
+          <t>27.65</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.3131</t>
+          <t>0.3530</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1551,36 +1057,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>100016</t>
+          <t>012208</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>富国天源沪港深平衡混合</t>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>12.53</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>65.62</t>
+          <t>82.34</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.2543</t>
+          <t>0.3421</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1589,36 +1095,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>457001</t>
+          <t>010793</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国富亚洲机会股票 (QDII)</t>
+          <t>华安成长先锋混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>8.43</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>88.07</t>
+          <t>93.43</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.2419</t>
+          <t>0.2687</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1627,36 +1133,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010335</t>
+          <t>513580</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华宝竞争优势混合</t>
+          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14.44</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>42.87</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.2397</t>
+          <t>0.2401</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1665,36 +1171,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009334</t>
+          <t>513980</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>富国融享18个月定期开放混合</t>
+          <t>景顺长城中证港股通科技交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7.54</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>97.36</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.2337</t>
+          <t>0.2022</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1713,22 +1219,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>94.24</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1311</t>
+          <t>0.1943</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1741,36 +1247,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001215</t>
+          <t>159742</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>博时沪港深优质企业灵活配置混合A</t>
+          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>84.49</t>
+          <t>96.57</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1141</t>
+          <t>0.1843</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1779,36 +1285,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>005732</t>
+          <t>159741</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>富国臻选成长灵活配置混合</t>
+          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>75.06</t>
+          <t>99.73</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.1092</t>
+          <t>0.1678</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1817,36 +1323,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009017</t>
+          <t>006122</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>银华港股通精选股票</t>
+          <t>华安低碳生活混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>91.93</t>
+          <t>86.68</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0706</t>
+          <t>0.1639</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1855,36 +1361,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>519601</t>
+          <t>513860</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海富通中国海外精选混合(QDII)</t>
+          <t>海富通中证港股通科技交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>95.13</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0529</t>
+          <t>0.1606</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1893,36 +1399,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>006923</t>
+          <t>012010</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>前海开源沪港深非周期性行业股票A</t>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>9.29</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>29.91</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0289</t>
+          <t>0.1394</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1931,36 +1437,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>011126</t>
+          <t>011137</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>富国互联科技股票C</t>
+          <t>广发盛兴混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>87.85</t>
+          <t>93.21</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0233</t>
+          <t>0.1365</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1969,36 +1475,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>006930</t>
+          <t>513890</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>泰康中证港股通TMT主题指数A</t>
+          <t>上投摩根恒生科技ETF（QDII）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0145</t>
+          <t>0.1008</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2007,36 +1513,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>006924</t>
+          <t>159747</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>前海开源沪港深非周期性行业股票C</t>
+          <t>南方中证香港科技交易型开放式指数证券投资基金(QDII)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>100.03</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0113</t>
+          <t>0.0906</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2045,36 +1551,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>519602</t>
+          <t>009695</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>海富通大中华精选混合QDII</t>
+          <t>招商成长精选一年定期开放混合A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>87.04</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0079</t>
+          <t>0.0761</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -2083,36 +1589,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>002555</t>
+          <t>013127</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>博时沪港深优质企业灵活配置混合C</t>
+          <t>汇添富恒生科技指数（QDII）A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>84.49</t>
+          <t>91.71</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0051</t>
+          <t>0.0707</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -2121,36 +1627,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>006931</t>
+          <t>009363</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>泰康中证港股通TMT主题指数C</t>
+          <t>招商丰盈积极配置混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>87.04</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0043</t>
+          <t>0.0703</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -2159,36 +1665,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>004521</t>
+          <t>011402</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+          <t>汇添富成长精选混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>92.29</t>
+          <t>87.99</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0037</t>
+          <t>0.0615</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -2197,36 +1703,568 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>004522</t>
+          <t>513160</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+          <t>银华恒生港股通中国科技ETF</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>92.29</t>
+          <t>92.07</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0024</t>
+          <t>0.0560</t>
         </is>
       </c>
       <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159751</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011144</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013128</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>513020</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011145</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004321</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>前海开源沪港深强国产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>64.32</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2240,7 +2278,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2261,7 +2299,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2301,22 +2339,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.32</t>
+          <t>188.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>96.77</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.0579</t>
+          <t>9.2450</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2329,36 +2367,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501203</t>
+          <t>513180</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达创新未来18个月封闭运作混合A</t>
+          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>97.69</t>
+          <t>57.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>96.42</t>
+          <t>95.49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.8232</t>
+          <t>2.6542</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2367,36 +2405,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011136</t>
+          <t>011401</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发盛兴混合A</t>
+          <t>汇添富成长精选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>54.45</t>
+          <t>55.02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.3522</t>
+          <t>1.9312</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2405,36 +2443,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010792</t>
+          <t>011136</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安成长先锋混合A</t>
+          <t>广发盛兴混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>31.93</t>
+          <t>29.99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>92.61</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.7977</t>
+          <t>1.5835</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2443,36 +2481,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011162</t>
+          <t>010161</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时港股通领先趋势混合A</t>
+          <t>广发瑞安精选股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>48.21</t>
+          <t>28.93</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.4126</t>
+          <t>1.5449</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2481,36 +2519,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009782</t>
+          <t>010792</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国兴泉回报12个月持有期混合A</t>
+          <t>华安成长先锋混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26.06</t>
+          <t>21.50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>75.86</t>
+          <t>93.59</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.3994</t>
+          <t>1.2771</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -2519,36 +2557,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010003</t>
+          <t>012208</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>景顺长城电子信息产业股票A</t>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>27.03</t>
+          <t>21.43</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.98</t>
+          <t>73.28</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.2758</t>
+          <t>0.5679</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -2557,36 +2595,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006879</t>
+          <t>513010</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华安智能生活混合</t>
+          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25.60</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>82.99</t>
+          <t>91.92</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.2723</t>
+          <t>0.5332</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -2595,32 +2633,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008934</t>
+          <t>501311</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大成科技消费股票A</t>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23.04</t>
+          <t>25.43</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>82.49</t>
+          <t>94.57</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.7557</t>
+          <t>0.5315</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -2633,36 +2671,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009783</t>
+          <t>010793</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国兴泉回报12个月持有期混合C</t>
+          <t>华安成长先锋混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10.44</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>75.86</t>
+          <t>93.59</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.5606</t>
+          <t>0.2934</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -2671,36 +2709,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007460</t>
+          <t>513860</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华安成长创新混合</t>
+          <t>海富通中证港股通科技交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.20</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>83.20</t>
+          <t>96.17</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.4100</t>
+          <t>0.2411</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -2709,36 +2747,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>519779</t>
+          <t>513980</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+          <t>景顺长城中证港股通科技交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10.83</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>86.43</t>
+          <t>95.45</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.3975</t>
+          <t>0.2077</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -2747,36 +2785,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009623</t>
+          <t>513580</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>长城创新驱动混合</t>
+          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>11.77</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>81.09</t>
+          <t>91.49</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.3602</t>
+          <t>0.1970</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -2785,36 +2823,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010004</t>
+          <t>006614</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>景顺长城电子信息产业股票C</t>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>91.98</t>
+          <t>94.57</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.3549</t>
+          <t>0.1906</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -2823,36 +2861,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>100016</t>
+          <t>159740</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>富国天源沪港深平衡混合</t>
+          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7.23</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>68.26</t>
+          <t>99.00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.3413</t>
+          <t>0.1882</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2861,36 +2899,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>012200</t>
+          <t>011137</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金A</t>
+          <t>广发盛兴混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>92.61</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.3043</t>
+          <t>0.1521</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2899,36 +2937,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>006122</t>
+          <t>159742</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华安低碳生活混合</t>
+          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>96.64</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.3028</t>
+          <t>0.1457</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -2937,36 +2975,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010793</t>
+          <t>159741</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华安成长先锋混合C</t>
+          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>99.85</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.2911</t>
+          <t>0.1362</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -2975,36 +3013,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>011163</t>
+          <t>011144</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>博时港股通领先趋势混合C</t>
+          <t>华安汇宏精选混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>8.92</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>92.82</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.2614</t>
+          <t>0.0914</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -3013,32 +3051,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009334</t>
+          <t>517360</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>富国融享18个月定期开放混合</t>
+          <t>华安中证沪港深科技100交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>95.40</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.2227</t>
+          <t>0.0884</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -3051,36 +3089,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>008935</t>
+          <t>011402</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>大成科技消费股票C</t>
+          <t>汇添富成长精选混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>82.49</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.2083</t>
+          <t>0.0758</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -3089,36 +3127,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>011137</t>
+          <t>012170</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>广发盛兴混合C</t>
+          <t>华夏永顺一年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>11.37</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>29.22</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.1832</t>
+          <t>0.0716</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -3127,36 +3165,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>005732</t>
+          <t>010162</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>富国臻选成长灵活配置混合</t>
+          <t>广发瑞安精选股票C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>79.74</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.1662</t>
+          <t>0.0459</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -3165,36 +3203,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>011429</t>
+          <t>012209</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>前海开源民裕进取混合</t>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>34.92</t>
+          <t>73.28</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0889</t>
+          <t>0.0151</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -3203,36 +3241,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>012201</t>
+          <t>006930</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金C</t>
+          <t>泰康中证港股通TMT主题指数A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>90.48</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0874</t>
+          <t>0.0122</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -3241,36 +3279,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>005695</t>
+          <t>013127</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华安睿明两年定期开放灵活配置混合A</t>
+          <t>汇添富恒生科技指数（QDII）A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>82.47</t>
+          <t>89.22</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0826</t>
+          <t>0.0121</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -3279,36 +3317,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>010029</t>
+          <t>013128</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>富国稳进回报12个月持有期混合A</t>
+          <t>汇添富恒生科技指数（QDII）C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>23.91</t>
+          <t>89.22</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0726</t>
+          <t>0.0112</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -3317,36 +3355,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>519601</t>
+          <t>011145</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>海富通中国海外精选混合(QDII)</t>
+          <t>华安汇宏精选混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>90.44</t>
+          <t>92.82</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0451</t>
+          <t>0.0087</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -3355,36 +3393,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>008061</t>
+          <t>001900</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>惠升惠新灵活配置混合A</t>
+          <t>诺安精选价值混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>74.36</t>
+          <t>92.19</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0420</t>
+          <t>0.0053</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -3393,32 +3431,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>006154</t>
+          <t>006931</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华安制造先锋混合</t>
+          <t>泰康中证港股通TMT主题指数C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>88.91</t>
+          <t>90.48</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0403</t>
+          <t>0.0041</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -3431,32 +3469,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>011588</t>
+          <t>012171</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>前海开源成份精选混合</t>
+          <t>华夏永顺一年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>33.94</t>
+          <t>29.22</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0319</t>
+          <t>0.0035</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -3469,302 +3507,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>004316</t>
+          <t>006477</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+          <t>中邮沪港深精选混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>63.43</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0221</t>
+          <t>0.0024</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>010030</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>富国稳进回报12个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>23.91</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0158</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>004317</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>90.67</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0131</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>006930</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>泰康中证港股通TMT主题指数A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0131</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>008062</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>惠升惠新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>74.36</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0118</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
         <v>3</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>001900</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>诺安精选价值混合</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>92.63</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>005696</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>华安睿明两年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>82.47</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>006931</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>泰康中证港股通TMT主题指数C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -5354,7 +5126,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5375,7 +5147,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -5415,22 +5187,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>188.29</t>
+          <t>90.32</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.77</t>
+          <t>93.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>9.2450</t>
+          <t>5.0579</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -5443,36 +5215,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>513180</t>
+          <t>501203</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
+          <t>易方达创新未来18个月封闭运作混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>57.45</t>
+          <t>97.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.49</t>
+          <t>96.42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.6542</t>
+          <t>2.8232</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -5481,36 +5253,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011401</t>
+          <t>011136</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富成长精选混合A</t>
+          <t>广发盛兴混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>55.02</t>
+          <t>54.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>94.48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.9312</t>
+          <t>2.3522</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -5519,36 +5291,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011136</t>
+          <t>010792</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发盛兴混合A</t>
+          <t>华安成长先锋混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>29.99</t>
+          <t>31.93</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.61</t>
+          <t>94.57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.5835</t>
+          <t>1.7977</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -5557,36 +5329,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010161</t>
+          <t>011162</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发瑞安精选股票A</t>
+          <t>博时港股通领先趋势混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28.93</t>
+          <t>48.21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>92.10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.5449</t>
+          <t>1.4126</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -5595,36 +5367,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010792</t>
+          <t>009782</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华安成长先锋混合A</t>
+          <t>富国兴泉回报12个月持有期混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21.50</t>
+          <t>26.06</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.59</t>
+          <t>75.86</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.2771</t>
+          <t>1.3994</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -5633,36 +5405,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>012208</t>
+          <t>010003</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
+          <t>景顺长城电子信息产业股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>21.43</t>
+          <t>27.03</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>73.28</t>
+          <t>91.98</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5679</t>
+          <t>1.2758</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -5671,36 +5443,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>513010</t>
+          <t>006879</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
+          <t>华安智能生活混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12.01</t>
+          <t>25.60</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>82.99</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.5332</t>
+          <t>1.2723</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -5709,32 +5481,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501311</t>
+          <t>008934</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+          <t>大成科技消费股票A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>25.43</t>
+          <t>23.04</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>82.49</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.5315</t>
+          <t>0.7557</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -5747,36 +5519,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010793</t>
+          <t>009783</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华安成长先锋混合C</t>
+          <t>富国兴泉回报12个月持有期混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>10.44</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.59</t>
+          <t>75.86</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2934</t>
+          <t>0.5606</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -5785,36 +5557,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>513860</t>
+          <t>007460</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>海富通中证港股通科技交易型开放式指数证券投资基金</t>
+          <t>华安成长创新混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>8.20</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>96.17</t>
+          <t>83.20</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2411</t>
+          <t>0.4100</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -5823,36 +5595,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>513980</t>
+          <t>519779</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>景顺长城中证港股通科技交易型开放式指数证券投资基金</t>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>10.83</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>95.45</t>
+          <t>86.43</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.2077</t>
+          <t>0.3975</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -5861,36 +5633,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>513580</t>
+          <t>009623</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
+          <t>长城创新驱动混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>11.77</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>91.49</t>
+          <t>81.09</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1970</t>
+          <t>0.3602</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -5899,36 +5671,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006614</t>
+          <t>010004</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+          <t>景顺长城电子信息产业股票C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>91.98</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1906</t>
+          <t>0.3549</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -5937,36 +5709,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>159740</t>
+          <t>100016</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
+          <t>富国天源沪港深平衡混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>99.00</t>
+          <t>68.26</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1882</t>
+          <t>0.3413</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -5975,36 +5747,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>011137</t>
+          <t>012200</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>广发盛兴混合C</t>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>92.61</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1521</t>
+          <t>0.3043</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -6013,36 +5785,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>159742</t>
+          <t>006122</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
+          <t>华安低碳生活混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>96.64</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1457</t>
+          <t>0.3028</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -6051,36 +5823,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>159741</t>
+          <t>010793</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
+          <t>华安成长先锋混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>99.85</t>
+          <t>94.57</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.1362</t>
+          <t>0.2911</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -6089,36 +5861,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>011144</t>
+          <t>011163</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华安汇宏精选混合A</t>
+          <t>博时港股通领先趋势混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>92.10</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0914</t>
+          <t>0.2614</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -6127,32 +5899,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>517360</t>
+          <t>009334</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华安中证沪港深科技100交易型开放式指数证券投资基金</t>
+          <t>富国融享18个月定期开放混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>95.40</t>
+          <t>94.68</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0884</t>
+          <t>0.2227</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -6165,36 +5937,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>011402</t>
+          <t>008935</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>汇添富成长精选混合C</t>
+          <t>大成科技消费股票C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>82.49</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0758</t>
+          <t>0.2083</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -6203,36 +5975,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>012170</t>
+          <t>011137</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华夏永顺一年持有期混合型证券投资基金A</t>
+          <t>广发盛兴混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>11.37</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>29.22</t>
+          <t>94.48</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0716</t>
+          <t>0.1832</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -6241,36 +6013,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010162</t>
+          <t>005732</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>广发瑞安精选股票C</t>
+          <t>富国臻选成长灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>79.74</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0459</t>
+          <t>0.1662</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -6279,36 +6051,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>012209</t>
+          <t>011429</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
+          <t>前海开源民裕进取混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>73.28</t>
+          <t>34.92</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0151</t>
+          <t>0.0889</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -6317,36 +6089,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>006930</t>
+          <t>012201</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>泰康中证港股通TMT主题指数A</t>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0122</t>
+          <t>0.0874</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -6355,36 +6127,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>013127</t>
+          <t>005695</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>汇添富恒生科技指数（QDII）A</t>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>89.22</t>
+          <t>82.47</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0121</t>
+          <t>0.0826</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -6393,36 +6165,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>013128</t>
+          <t>010029</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>汇添富恒生科技指数（QDII）C</t>
+          <t>富国稳进回报12个月持有期混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>89.22</t>
+          <t>23.91</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0112</t>
+          <t>0.0726</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -6431,36 +6203,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>011145</t>
+          <t>519601</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>华安汇宏精选混合C</t>
+          <t>海富通中国海外精选混合(QDII)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>90.44</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0087</t>
+          <t>0.0451</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -6469,36 +6241,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>001900</t>
+          <t>008061</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>诺安精选价值混合</t>
+          <t>惠升惠新灵活配置混合A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>92.19</t>
+          <t>74.36</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0053</t>
+          <t>0.0420</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -6507,32 +6279,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>006931</t>
+          <t>006154</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>泰康中证港股通TMT主题指数C</t>
+          <t>华安制造先锋混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>88.91</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0041</t>
+          <t>0.0403</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -6545,32 +6317,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>012171</t>
+          <t>011588</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华夏永顺一年持有期混合型证券投资基金C</t>
+          <t>前海开源成份精选混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>29.22</t>
+          <t>33.94</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0035</t>
+          <t>0.0319</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -6583,36 +6355,302 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>006477</t>
+          <t>004316</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中邮沪港深精选混合</t>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>63.43</t>
+          <t>90.67</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0024</t>
+          <t>0.0221</t>
         </is>
       </c>
       <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>74.36</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -6626,7 +6664,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6647,7 +6685,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -6677,36 +6715,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>513330</t>
+          <t>009863</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏恒生互联网科技业ETF（QDII）</t>
+          <t>富国创新趋势股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>233.65</t>
+          <t>107.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.98</t>
+          <t>90.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10.5376</t>
+          <t>5.9252</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -6715,36 +6753,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>513180</t>
+          <t>501203</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
+          <t>易方达创新未来18个月封闭运作混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.43</t>
+          <t>83.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>87.77</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.3552</t>
+          <t>3.1268</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -6753,32 +6791,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011401</t>
+          <t>009892</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富成长精选混合A</t>
+          <t>富国成长策略混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>42.03</t>
+          <t>54.15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.99</t>
+          <t>89.48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.5677</t>
+          <t>2.1443</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -6791,36 +6829,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011136</t>
+          <t>011300</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发盛兴混合A</t>
+          <t>易方达智造优势混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22.19</t>
+          <t>84.97</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>39.35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.4424</t>
+          <t>2.1073</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -6829,36 +6867,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>513010</t>
+          <t>006751</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
+          <t>富国互联科技股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>26.24</t>
+          <t>43.62</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>87.85</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.2674</t>
+          <t>1.9585</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -6867,36 +6905,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010792</t>
+          <t>010662</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华安成长先锋混合A</t>
+          <t>富国均衡优选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>16.44</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>41.56</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.1623</t>
+          <t>1.6362</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -6905,36 +6943,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010161</t>
+          <t>009782</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发瑞安精选股票A</t>
+          <t>富国兴泉回报12个月持有期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.03</t>
+          <t>25.22</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.30</t>
+          <t>58.86</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5171</t>
+          <t>0.8751</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -6953,22 +6991,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>22.36</t>
+          <t>17.12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>94.77</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.5098</t>
+          <t>0.4400</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -6981,36 +7019,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009362</t>
+          <t>011301</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>招商丰盈积极配置混合A</t>
+          <t>易方达智造优势混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>21.39</t>
+          <t>16.33</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>87.04</t>
+          <t>39.35</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3679</t>
+          <t>0.4050</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -7019,36 +7057,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>159740</t>
+          <t>009783</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
+          <t>富国兴泉回报12个月持有期混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>10.11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>98.90</t>
+          <t>58.86</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.3565</t>
+          <t>0.3508</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -7057,32 +7095,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>014887</t>
+          <t>519779</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商安福1年定期开放债券</t>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>17.22</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>27.65</t>
+          <t>83.96</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.3530</t>
+          <t>0.3131</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -7095,36 +7133,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>012208</t>
+          <t>100016</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
+          <t>富国天源沪港深平衡混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12.53</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>82.34</t>
+          <t>65.62</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.3421</t>
+          <t>0.2543</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -7133,36 +7171,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010793</t>
+          <t>457001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华安成长先锋混合C</t>
+          <t>国富亚洲机会股票 (QDII)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>88.07</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.2687</t>
+          <t>0.2419</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -7171,36 +7209,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>513580</t>
+          <t>010335</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
+          <t>华宝竞争优势混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>14.44</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>42.87</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.2401</t>
+          <t>0.2397</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -7209,36 +7247,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>513980</t>
+          <t>009334</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>景顺长城中证港股通科技交易型开放式指数证券投资基金</t>
+          <t>富国融享18个月定期开放混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>7.54</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>97.36</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.2022</t>
+          <t>0.2337</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -7257,22 +7295,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8.52</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>94.77</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1943</t>
+          <t>0.1311</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -7285,36 +7323,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>159742</t>
+          <t>001215</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
+          <t>博时沪港深优质企业灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>96.57</t>
+          <t>84.49</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1843</t>
+          <t>0.1141</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -7323,36 +7361,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>159741</t>
+          <t>005732</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
+          <t>富国臻选成长灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>99.73</t>
+          <t>75.06</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.1678</t>
+          <t>0.1092</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -7361,36 +7399,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>006122</t>
+          <t>009017</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华安低碳生活混合</t>
+          <t>银华港股通精选股票</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>86.68</t>
+          <t>91.93</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.1639</t>
+          <t>0.0706</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -7399,36 +7437,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>513860</t>
+          <t>519601</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海富通中证港股通科技交易型开放式指数证券投资基金</t>
+          <t>海富通中国海外精选混合(QDII)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>95.13</t>
+          <t>94.88</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.1606</t>
+          <t>0.0529</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -7437,36 +7475,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>012010</t>
+          <t>006923</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+          <t>前海开源沪港深非周期性行业股票A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>9.29</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>29.91</t>
+          <t>89.39</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.1394</t>
+          <t>0.0289</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -7475,36 +7513,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>011137</t>
+          <t>011126</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>广发盛兴混合C</t>
+          <t>富国互联科技股票C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>87.85</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.1365</t>
+          <t>0.0233</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -7513,36 +7551,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>513890</t>
+          <t>006930</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>上投摩根恒生科技ETF（QDII）</t>
+          <t>泰康中证港股通TMT主题指数A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>94.01</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.1008</t>
+          <t>0.0145</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -7551,36 +7589,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>159747</t>
+          <t>006924</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>南方中证香港科技交易型开放式指数证券投资基金(QDII)</t>
+          <t>前海开源沪港深非周期性行业股票C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>100.03</t>
+          <t>89.39</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0906</t>
+          <t>0.0113</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -7589,36 +7627,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>009695</t>
+          <t>519602</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>招商成长精选一年定期开放混合A</t>
+          <t>海富通大中华精选混合QDII</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>87.04</t>
+          <t>92.07</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0761</t>
+          <t>0.0079</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -7627,36 +7665,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>013127</t>
+          <t>002555</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>汇添富恒生科技指数（QDII）A</t>
+          <t>博时沪港深优质企业灵活配置混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>91.71</t>
+          <t>84.49</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0707</t>
+          <t>0.0051</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -7665,36 +7703,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>009363</t>
+          <t>006931</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>招商丰盈积极配置混合C</t>
+          <t>泰康中证港股通TMT主题指数C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>87.04</t>
+          <t>94.01</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0703</t>
+          <t>0.0043</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -7703,36 +7741,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>011402</t>
+          <t>004521</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>汇添富成长精选混合C</t>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>87.99</t>
+          <t>92.29</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0615</t>
+          <t>0.0037</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -7741,568 +7779,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>513160</t>
+          <t>004522</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>银华恒生港股通中国科技ETF</t>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>92.29</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0560</t>
+          <t>0.0024</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>003993</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>82.10</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>8.43</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0489</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>010162</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>广发瑞安精选股票C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>92.30</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0419</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>159751</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>鹏华中证港股通科技ETF</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>91.30</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0347</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>011144</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>华安汇宏精选混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>85.87</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0326</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
         <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>013128</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>汇添富恒生科技指数（QDII）C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>91.71</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0295</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>513020</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>国泰中证港股通科技ETF</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>91.35</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0268</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>517360</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>华安中证沪港深科技100交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0240</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>009696</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>招商成长精选一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>87.04</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0203</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>012209</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>82.34</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0126</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>011145</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>华安汇宏精选混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>85.87</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>001900</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>诺安精选价值混合</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>89.96</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>006477</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>中邮沪港深精选混合</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>83.91</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>6.78</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>012011</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>29.91</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>004321</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>前海开源沪港深强国产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>64.32</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +7822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8327,17 +7833,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8347,14 +7873,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>43</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25.45</v>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9321</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -8363,14 +7911,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>32</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22.07</v>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>54.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6039</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -8379,14 +7949,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>40</v>
-      </c>
-      <c r="D4" t="n">
-        <v>24.29</v>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>54.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2507</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -8395,14 +7987,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>39</v>
-      </c>
-      <c r="D5" t="n">
-        <v>23.1</v>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2466</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -8411,14 +8025,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>29</v>
-      </c>
-      <c r="D6" t="n">
-        <v>20.83</v>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -8427,14 +8063,378 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.15</v>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00981-中芯国际.xlsx
+++ b/数据整理/stocks/港股/00981-中芯国际.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D2" t="n">
-        <v>25.45</v>
+        <v>14.83</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D3" t="n">
-        <v>22.07</v>
+        <v>25.45</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>24.29</v>
+        <v>22.07</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>23.1</v>
+        <v>24.29</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D6" t="n">
-        <v>20.83</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>29</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20.83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>15</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.15</v>
       </c>
     </row>
@@ -583,6 +600,2038 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>103.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4350</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3306</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1636</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5945</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5114</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014887</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商安福1年定期开放债券</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4458</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159636</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信国证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4353</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4270</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3900</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3868</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3849</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012805</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3575</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3381</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3224</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012342</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发瑞泽精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2260</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2185</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1648</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012804</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1304</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>513890</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上投摩根恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方中证香港科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>513150</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>96.19</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>513020</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013127</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013128</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>517960</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>上投摩根中证沪港深科技100ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>513380</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发恒生科技（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>513160</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华恒生港股通中国科技ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011144</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>70.17</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>70.17</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159751</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>159750</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商中证香港科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012343</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发瑞泽精选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>513320</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>易方达恒生港股通新经济ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011145</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012990</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘国证港股通50指数C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004321</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>前海开源沪港深强国产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014970</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012989</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>天弘国证港股通50指数A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2272,7 +4321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3544,7 +5593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5120,7 +7169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6658,7 +8707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7816,7 +9865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00981-中芯国际.xlsx
+++ b/数据整理/stocks/港股/00981-中芯国际.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D2" t="n">
-        <v>14.83</v>
+        <v>18.45</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D3" t="n">
-        <v>25.45</v>
+        <v>14.83</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D4" t="n">
-        <v>22.07</v>
+        <v>25.45</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>24.29</v>
+        <v>22.07</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" t="n">
-        <v>23.1</v>
+        <v>24.29</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
-        <v>20.83</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>29</v>
+      </c>
+      <c r="D8" t="n">
+        <v>20.83</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>15</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.15</v>
       </c>
     </row>
@@ -600,6 +617,1810 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>168.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.1128</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5912</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1995</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0339</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7750</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7133</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014887</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商安福1年定期开放债券</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4765</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159636</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信国证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4118</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4093</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3991</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3764</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012805</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3678</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3671</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3414</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010430</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商安阳债券A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3245</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>016513</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商安嘉债券</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2961</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012342</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发瑞泽精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2330</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2216</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1977</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>513260</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1877</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012804</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1786</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>96.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>513890</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上投摩根恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97.27</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012999</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商稳旺混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>39.72</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>513020</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>513160</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华恒生港股通中国科技ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>517960</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根中证沪港深科技100ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>96.15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>72.10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>513150</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011144</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>513380</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发恒生科技（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159751</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>95.29</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012998</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商稳旺混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>39.72</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012990</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天弘国证港股通50指数C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012343</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发瑞泽精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011145</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>513320</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达恒生港股通新经济ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012989</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天弘国证港股通50指数A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010431</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商安阳债券C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014970</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2631,7 +4452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4321,7 +6142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5593,7 +7414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7169,7 +8990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8707,7 +10528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9865,7 +11686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
